--- a/siteMap.xlsx
+++ b/siteMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\animalsTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E49094-D66D-48E6-B5BF-0A4FED3BE427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18ABEA7-D48E-4FBE-8139-63EA1481CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="4785" windowWidth="21600" windowHeight="11205" xr2:uid="{76D21959-BE2C-4579-9D4F-F37674D89D75}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11205" xr2:uid="{76D21959-BE2C-4579-9D4F-F37674D89D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Number</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Create custom word button</t>
   </si>
   <si>
-    <t>create_custom_word.php</t>
-  </si>
-  <si>
     <t>Allows a custom word to be made</t>
   </si>
   <si>
@@ -164,6 +161,27 @@
   </si>
   <si>
     <t>Allows columns to be updated once they are clicked out of</t>
+  </si>
+  <si>
+    <t>add_custom_word.php</t>
+  </si>
+  <si>
+    <t>Submit button under add custom word</t>
+  </si>
+  <si>
+    <t>custom_word_url.php</t>
+  </si>
+  <si>
+    <t>Displays url to click or to share</t>
+  </si>
+  <si>
+    <t>Url hotlink from custom_word_url.php</t>
+  </si>
+  <si>
+    <t>play_custom_word.php</t>
+  </si>
+  <si>
+    <t>Plays custom word with id provided</t>
   </si>
 </sst>
 </file>
@@ -515,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFE2E42-E2E0-4C8D-B52B-0C3A67E23A7D}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -705,10 +723,10 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,13 +734,41 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/siteMap.xlsx
+++ b/siteMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\animalsTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\animals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18ABEA7-D48E-4FBE-8139-63EA1481CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB75340-0B7A-4A38-AC37-C1A61C4FC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11205" xr2:uid="{76D21959-BE2C-4579-9D4F-F37674D89D75}"/>
+    <workbookView xWindow="7170" yWindow="1620" windowWidth="21600" windowHeight="11205" xr2:uid="{76D21959-BE2C-4579-9D4F-F37674D89D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Number</t>
   </si>
@@ -67,15 +67,9 @@
     <t>provides game information</t>
   </si>
   <si>
-    <t>Graph button</t>
-  </si>
-  <si>
     <t>list_words.php</t>
   </si>
   <si>
-    <t>lists system and custom words</t>
-  </si>
-  <si>
     <t>create word button</t>
   </si>
   <si>
@@ -175,13 +169,58 @@
     <t>Displays url to click or to share</t>
   </si>
   <si>
-    <t>Url hotlink from custom_word_url.php</t>
-  </si>
-  <si>
-    <t>play_custom_word.php</t>
-  </si>
-  <si>
-    <t>Plays custom word with id provided</t>
+    <t>Lists Puzzle Words Dropdown button</t>
+  </si>
+  <si>
+    <t>List Custom Words Dropdown button</t>
+  </si>
+  <si>
+    <t>list_custom_words.php</t>
+  </si>
+  <si>
+    <t>lists custom words</t>
+  </si>
+  <si>
+    <t>lists system words</t>
+  </si>
+  <si>
+    <t>Plus sign</t>
+  </si>
+  <si>
+    <t>create_custom_word.php</t>
+  </si>
+  <si>
+    <t>Prompts for new custom word into sql</t>
+  </si>
+  <si>
+    <t>insert_custom_word.php</t>
+  </si>
+  <si>
+    <t>PHP code actually inserts new custom word into sql</t>
+  </si>
+  <si>
+    <t>update word button on custom list page</t>
+  </si>
+  <si>
+    <t>update_custom_word.php</t>
+  </si>
+  <si>
+    <t>update_custom.php</t>
+  </si>
+  <si>
+    <t>submit button on custom update page</t>
+  </si>
+  <si>
+    <t>delete button on custom</t>
+  </si>
+  <si>
+    <t>delete_custom.php</t>
+  </si>
+  <si>
+    <t>PHP code deletes custom word in sql</t>
+  </si>
+  <si>
+    <t>editable_custom_list.php</t>
   </si>
 </sst>
 </file>
@@ -533,18 +572,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFE2E42-E2E0-4C8D-B52B-0C3A67E23A7D}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,13 +633,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,13 +647,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,13 +661,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,13 +675,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,13 +689,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,13 +703,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,13 +717,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,13 +731,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -706,13 +745,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,13 +759,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,13 +773,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,13 +787,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,13 +801,97 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
-        <v>48</v>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/siteMap.xlsx
+++ b/siteMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\animals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\animalsTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB75340-0B7A-4A38-AC37-C1A61C4FC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D9F40-A746-4EFD-B987-AB809D849415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="1620" windowWidth="21600" windowHeight="11205" xr2:uid="{76D21959-BE2C-4579-9D4F-F37674D89D75}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11205" xr2:uid="{76D21959-BE2C-4579-9D4F-F37674D89D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +826,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
